--- a/variant_19/Задание 18/18.xlsx
+++ b/variant_19/Задание 18/18.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\К-ЕГЭ- 2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,8 +19,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,7 +112,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -152,7 +147,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -329,23 +324,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1">
         <v>51</v>
       </c>
@@ -377,7 +372,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>57</v>
       </c>
@@ -409,7 +404,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>63</v>
       </c>
@@ -441,7 +436,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>10</v>
       </c>
@@ -473,7 +468,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>99</v>
       </c>
@@ -505,7 +500,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>35</v>
       </c>
@@ -537,7 +532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>100</v>
       </c>
@@ -569,7 +564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>11</v>
       </c>
@@ -601,7 +596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>22</v>
       </c>
@@ -633,7 +628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>4</v>
       </c>
@@ -663,6 +658,826 @@
       </c>
       <c r="J10">
         <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <f t="shared" ref="A12:A19" si="0">A1+A13</f>
+        <v>452</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:B19" si="1">B1+MAX(A12,B13)</f>
+        <v>473</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:C20" si="2">C1+MAX(B12,C13)</f>
+        <v>714</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D20" si="3">D1+MAX(C12,D13)</f>
+        <v>762</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E20" si="4">E1+MAX(D12,E13)</f>
+        <v>829</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F20" si="5">F1+MAX(E12,F13)</f>
+        <v>929</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G20" si="6">G1+MAX(F12,G13)</f>
+        <v>1030</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H20" si="7">H1+MAX(G12,H13)</f>
+        <v>1069</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I20" si="8">I1+MAX(H12,I13)</f>
+        <v>1087</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J20" si="9">J1+MAX(I12,J13)</f>
+        <v>1133</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L19" si="10">A1+L13</f>
+        <v>452</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M19" si="11">B1+MIN(L12,M13)</f>
+        <v>371</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:N20" si="12">C1+MIN(M12,N13)</f>
+        <v>464</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:O20" si="13">D1+MIN(N12,O13)</f>
+        <v>436</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:P20" si="14">E1+MIN(O12,P13)</f>
+        <v>481</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ref="Q12:Q20" si="15">F1+MIN(P12,Q13)</f>
+        <v>581</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12:R20" si="16">G1+MIN(Q12,R13)</f>
+        <v>648</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12:S20" si="17">H1+MIN(R12,S13)</f>
+        <v>558</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ref="T12:T20" si="18">I1+MIN(S12,T13)</f>
+        <v>493</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ref="U12:U20" si="19">J1+MIN(T12,U13)</f>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>401</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>444</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>621</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>672</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>784</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>794</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>963</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>995</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="8"/>
+        <v>1014</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="9"/>
+        <v>1104</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="10"/>
+        <v>401</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="12"/>
+        <v>435</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="13"/>
+        <v>388</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="14"/>
+        <v>480</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="15"/>
+        <v>490</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="16"/>
+        <v>583</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="17"/>
+        <v>519</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="18"/>
+        <v>475</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="19"/>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>387</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>524</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>692</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>780</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>870</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>942</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="8"/>
+        <v>979</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="9"/>
+        <v>1046</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="10"/>
+        <v>344</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="11"/>
+        <v>307</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="12"/>
+        <v>338</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="13"/>
+        <v>337</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="14"/>
+        <v>415</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="15"/>
+        <v>503</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="16"/>
+        <v>554</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="17"/>
+        <v>487</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="18"/>
+        <v>456</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="19"/>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>371</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>493</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>518</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>614</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>664</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>745</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>810</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>901</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="9"/>
+        <v>970</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="10"/>
+        <v>281</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="11"/>
+        <v>291</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="12"/>
+        <v>355</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="13"/>
+        <v>321</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="14"/>
+        <v>417</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="15"/>
+        <v>429</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="16"/>
+        <v>464</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="17"/>
+        <v>415</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="18"/>
+        <v>419</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="19"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>271</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>314</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>429</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>436</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>515</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>591</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>654</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>726</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="8"/>
+        <v>731</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="9"/>
+        <v>796</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="10"/>
+        <v>271</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="11"/>
+        <v>234</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="12"/>
+        <v>329</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="13"/>
+        <v>296</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="14"/>
+        <v>336</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="15"/>
+        <v>379</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="16"/>
+        <v>383</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="17"/>
+        <v>350</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="18"/>
+        <v>328</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="19"/>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>334</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>411</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>475</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>513</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>636</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>692</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>702</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="9"/>
+        <v>704</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="10"/>
+        <v>172</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="11"/>
+        <v>191</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="12"/>
+        <v>262</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="13"/>
+        <v>289</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="14"/>
+        <v>303</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="15"/>
+        <v>303</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="16"/>
+        <v>365</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="17"/>
+        <v>316</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="18"/>
+        <v>323</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="19"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>263</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>362</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>413</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>574</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>585</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>638</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="9"/>
+        <v>639</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="10"/>
+        <v>137</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="11"/>
+        <v>173</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="12"/>
+        <v>192</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="13"/>
+        <v>212</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="14"/>
+        <v>239</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="15"/>
+        <v>265</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="16"/>
+        <v>365</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="17"/>
+        <v>260</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="18"/>
+        <v>313</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="19"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>274</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>311</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>474</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>505</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>530</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="9"/>
+        <v>569</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="11"/>
+        <v>116</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="12"/>
+        <v>165</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="13"/>
+        <v>186</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="14"/>
+        <v>188</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="15"/>
+        <v>232</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="16"/>
+        <v>282</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="17"/>
+        <v>249</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="18"/>
+        <v>274</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="19"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20">
+        <f>A9+A21</f>
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <f>B9+MAX(A20,B21)</f>
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>241</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>290</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>394</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>410</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>474</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>508</v>
+      </c>
+      <c r="L20">
+        <f>A9+L21</f>
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <f>B9+MIN(L20,M21)</f>
+        <v>97</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="12"/>
+        <v>117</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="13"/>
+        <v>140</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="14"/>
+        <v>151</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="15"/>
+        <v>163</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="16"/>
+        <v>202</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="17"/>
+        <v>218</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="18"/>
+        <v>282</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="19"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21">
+        <f>A10</f>
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <f>B10+A21</f>
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:J21" si="20">C10+B21</f>
+        <v>116</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="20"/>
+        <v>200</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="20"/>
+        <v>230</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="20"/>
+        <v>278</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="20"/>
+        <v>355</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="20"/>
+        <v>368</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="20"/>
+        <v>408</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="20"/>
+        <v>441</v>
+      </c>
+      <c r="L21">
+        <f>A10</f>
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <f xml:space="preserve"> B10+L21</f>
+        <v>29</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ref="N21:W21" si="21" xml:space="preserve"> C10+M21</f>
+        <v>116</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="21"/>
+        <v>200</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="21"/>
+        <v>230</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="21"/>
+        <v>278</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="21"/>
+        <v>355</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="21"/>
+        <v>368</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="21"/>
+        <v>408</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="21"/>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
